--- a/BMSHPMS/wwwroot/ExcelTemplate/Longevity_Big5cell_154x255m_RedPaper.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Longevity_Big5cell_154x255m_RedPaper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178F711-2FC3-473C-A5B3-3EE1D5F6AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668C7862-8984-4102-892E-B24583D4FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="960" windowWidth="16560" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -350,32 +350,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="distributed" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:O11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -671,106 +671,106 @@
     <col min="5" max="6" width="7.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="9" width="7.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
     <col min="11" max="12" width="7.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:15" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="28"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -796,47 +796,47 @@
     </row>
     <row r="9" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:15" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="29"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="29"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -904,98 +904,98 @@
     </row>
     <row r="2" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
     </row>
     <row r="7" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Longevity_Big5cell_154x255m_RedPaper.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Longevity_Big5cell_154x255m_RedPaper.xlsx
@@ -1,110 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user13\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668C7862-8984-4102-892E-B24583D4FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>梁志雄合家</t>
-  </si>
-  <si>
-    <t>蕭少忠合家</t>
-  </si>
-  <si>
-    <t>林家駿合家</t>
-  </si>
-  <si>
-    <t>黎沛錦合家</t>
-  </si>
-  <si>
-    <t>張偉芬合家</t>
-  </si>
-  <si>
-    <t>R3010215</t>
-  </si>
-  <si>
-    <t>R3010216</t>
-  </si>
-  <si>
-    <t>R3010220</t>
-  </si>
-  <si>
-    <t>R3010222</t>
-  </si>
-  <si>
-    <t>R3010223</t>
-  </si>
-  <si>
     <t>{{Name1}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Name2}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Name3}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Name4}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Name5}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Serial1}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Serial2}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Serial3}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Serial4}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>{{Serial5}}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="\P000000"/>
     <numFmt numFmtId="177" formatCode="&quot;Q&quot;000000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,71 +141,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="46"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="46"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="46"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <name val="全真顏體"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
@@ -246,17 +149,6 @@
     </font>
     <font>
       <sz val="28"/>
-      <name val="全真顏體"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <name val="全真顏體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="40"/>
       <name val="全真顏體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -290,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,60 +214,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,121 +505,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="7.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="6" width="7.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
     <col min="8" max="9" width="7.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="7.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="24"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="24"/>
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="24"/>
+      <c r="K2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="11"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="24"/>
+      <c r="N2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -796,294 +645,69 @@
     </row>
     <row r="9" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:15" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="21"/>
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="21"/>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="21"/>
+      <c r="H11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="14"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="21"/>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="21"/>
+      <c r="N11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="B2:C6"/>
     <mergeCell ref="E2:F6"/>
     <mergeCell ref="H2:I6"/>
     <mergeCell ref="K2:L6"/>
     <mergeCell ref="N2:O6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.35433070866141736" top="0.94488188976377963" bottom="0.30208333333333331" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="230" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="6.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.42578125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="L8" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-    </row>
-    <row r="10" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:15" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="E2:F6"/>
-    <mergeCell ref="H2:I6"/>
-    <mergeCell ref="K2:L6"/>
-    <mergeCell ref="N2:O6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-  </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.35433070866141736" top="0.94488188976377963" bottom="0.30208333333333331" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>